--- a/10_参考資料/03_調査/【投資】RaspberryPi導入.xlsx
+++ b/10_参考資料/03_調査/【投資】RaspberryPi導入.xlsx
@@ -145,14 +145,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://amzn.asia/i3C7qVD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://kakaku.com/item/K0000686991/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最新RaspberryPiの導入投資</t>
     <rPh sb="0" eb="2">
       <t>サイシン</t>
@@ -163,6 +155,14 @@
     <rPh sb="16" eb="18">
       <t>トウシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://amzn.asia/i3C7qVD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://amzn.asia/4Bgvmqk</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -254,14 +254,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -359,7 +359,7 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5250</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1981</c:v>
@@ -368,7 +368,7 @@
                   <c:v>999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>756</c:v>
+                  <c:v>581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,7 +440,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B6:F11" totalsRowCount="1" headerRowDxfId="4">
-  <autoFilter ref="B6:F11"/>
+  <autoFilter ref="B6:F10"/>
   <sortState ref="B7:F10">
     <sortCondition descending="1" ref="E6:E10"/>
   </sortState>
@@ -756,23 +756,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>42766</v>
       </c>
     </row>
@@ -803,11 +803,11 @@
       <c r="D7" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
-        <v>5250</v>
+      <c r="E7" s="3">
+        <v>5300</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
@@ -820,7 +820,7 @@
       <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>1981</v>
       </c>
       <c r="F8" t="s">
@@ -837,7 +837,7 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>999</v>
       </c>
       <c r="F9" t="s">
@@ -854,18 +854,18 @@
       <c r="D10" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
-        <v>756</v>
+      <c r="E10" s="3">
+        <v>581</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C11" s="1"/>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f>SUBTOTAL(109,テーブル1[金額])</f>
-        <v>8986</v>
+        <v>8861</v>
       </c>
     </row>
   </sheetData>
